--- a/data/strategies/广发场外策略结果.xlsx
+++ b/data/strategies/广发场外策略结果.xlsx
@@ -18,17 +18,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="190">
   <si>
     <t>港台中证生物医药ETF联结</t>
   </si>
   <si>
+    <t>富国中证新能源汽车</t>
+  </si>
+  <si>
     <t>富国中证娱乐主题指数增强（LOF)</t>
   </si>
   <si>
-    <t>富国中证新能源汽车</t>
-  </si>
-  <si>
     <t>招商中证白酒A</t>
   </si>
   <si>
@@ -62,73 +62,67 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>0.13%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>17.48%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>5.89%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>18.21%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>19.17%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>24.14%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
+    <t>0.52%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>12.79%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>6.58%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>19.07%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>23.87%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
   </si>
   <si>
     <t>场外权重</t>
   </si>
   <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
   </si>
   <si>
     <t>场外基金</t>
@@ -140,85 +134,85 @@
     <t>006756.OF</t>
   </si>
   <si>
+    <t>161028.OF</t>
+  </si>
+  <si>
     <t>161036.OF</t>
   </si>
   <si>
-    <t>161028.OF</t>
-  </si>
-  <si>
     <t>161725.OF</t>
   </si>
   <si>
-    <t>-3.80%</t>
-  </si>
-  <si>
-    <t>-6.04%</t>
-  </si>
-  <si>
-    <t>15.09%</t>
-  </si>
-  <si>
-    <t>-4.41%</t>
-  </si>
-  <si>
-    <t>11.70%</t>
-  </si>
-  <si>
-    <t>-1.52%</t>
-  </si>
-  <si>
-    <t>41.45%</t>
-  </si>
-  <si>
-    <t>21.82%</t>
-  </si>
-  <si>
-    <t>3.32%</t>
-  </si>
-  <si>
-    <t>-3.57%</t>
-  </si>
-  <si>
-    <t>19.32%</t>
-  </si>
-  <si>
-    <t>4.48%</t>
-  </si>
-  <si>
-    <t>20.40%</t>
-  </si>
-  <si>
-    <t>12.56%</t>
-  </si>
-  <si>
-    <t>38.70%</t>
-  </si>
-  <si>
-    <t>33.34%</t>
-  </si>
-  <si>
-    <t>21.72%</t>
-  </si>
-  <si>
-    <t>15.71%</t>
-  </si>
-  <si>
-    <t>33.35%</t>
-  </si>
-  <si>
-    <t>32.40%</t>
-  </si>
-  <si>
-    <t>26.00%</t>
-  </si>
-  <si>
-    <t>18.02%</t>
-  </si>
-  <si>
-    <t>37.32%</t>
-  </si>
-  <si>
-    <t>41.12%</t>
+    <t>-3.94%</t>
+  </si>
+  <si>
+    <t>24.34%</t>
+  </si>
+  <si>
+    <t>-10.63%</t>
+  </si>
+  <si>
+    <t>-9.08%</t>
+  </si>
+  <si>
+    <t>4.04%</t>
+  </si>
+  <si>
+    <t>51.03%</t>
+  </si>
+  <si>
+    <t>-10.48%</t>
+  </si>
+  <si>
+    <t>9.63%</t>
+  </si>
+  <si>
+    <t>0.61%</t>
+  </si>
+  <si>
+    <t>37.23%</t>
+  </si>
+  <si>
+    <t>-9.75%</t>
+  </si>
+  <si>
+    <t>-1.77%</t>
+  </si>
+  <si>
+    <t>20.04%</t>
+  </si>
+  <si>
+    <t>36.71%</t>
+  </si>
+  <si>
+    <t>14.42%</t>
+  </si>
+  <si>
+    <t>29.77%</t>
+  </si>
+  <si>
+    <t>22.77%</t>
+  </si>
+  <si>
+    <t>34.11%</t>
+  </si>
+  <si>
+    <t>16.51%</t>
+  </si>
+  <si>
+    <t>30.75%</t>
+  </si>
+  <si>
+    <t>25.80%</t>
+  </si>
+  <si>
+    <t>37.22%</t>
+  </si>
+  <si>
+    <t>18.08%</t>
+  </si>
+  <si>
+    <t>40.62%</t>
   </si>
   <si>
     <t>股票代码</t>
@@ -233,7 +227,13 @@
     <t>财报主营构成</t>
   </si>
   <si>
-    <t>区间涨跌幅</t>
+    <t>区间收益率</t>
+  </si>
+  <si>
+    <t>000858.SZ</t>
+  </si>
+  <si>
+    <t>600519.SH</t>
   </si>
   <si>
     <t>600809.SH</t>
@@ -242,43 +242,37 @@
     <t>000568.SZ</t>
   </si>
   <si>
+    <t>002304.SZ</t>
+  </si>
+  <si>
     <t>601888.SH</t>
   </si>
   <si>
-    <t>600519.SH</t>
-  </si>
-  <si>
-    <t>000858.SZ</t>
-  </si>
-  <si>
-    <t>002304.SZ</t>
-  </si>
-  <si>
     <t>002027.SZ</t>
   </si>
   <si>
-    <t>300142.SZ</t>
+    <t>300413.SZ</t>
+  </si>
+  <si>
+    <t>000799.SZ</t>
   </si>
   <si>
     <t>603259.SH</t>
   </si>
   <si>
+    <t>002460.SZ</t>
+  </si>
+  <si>
+    <t>002812.SZ</t>
+  </si>
+  <si>
+    <t>600885.SH</t>
+  </si>
+  <si>
     <t>300122.SZ</t>
   </si>
   <si>
-    <t>300413.SZ</t>
-  </si>
-  <si>
-    <t>000799.SZ</t>
-  </si>
-  <si>
-    <t>002460.SZ</t>
-  </si>
-  <si>
-    <t>002812.SZ</t>
-  </si>
-  <si>
-    <t>600885.SH</t>
+    <t>600276.SH</t>
   </si>
   <si>
     <t>002050.SZ</t>
@@ -287,67 +281,79 @@
     <t>002340.SZ</t>
   </si>
   <si>
-    <t>300601.SZ</t>
-  </si>
-  <si>
     <t>300750.SZ</t>
   </si>
   <si>
     <t>300450.SZ</t>
   </si>
   <si>
-    <t>4.32%</t>
-  </si>
-  <si>
-    <t>4.09%</t>
-  </si>
-  <si>
-    <t>4.00%</t>
-  </si>
-  <si>
-    <t>3.47%</t>
-  </si>
-  <si>
-    <t>3.31%</t>
-  </si>
-  <si>
-    <t>3.16%</t>
-  </si>
-  <si>
-    <t>2.47%</t>
-  </si>
-  <si>
-    <t>2.17%</t>
-  </si>
-  <si>
-    <t>1.70%</t>
-  </si>
-  <si>
-    <t>1.57%</t>
-  </si>
-  <si>
-    <t>1.51%</t>
-  </si>
-  <si>
-    <t>1.50%</t>
-  </si>
-  <si>
-    <t>1.34%</t>
-  </si>
-  <si>
-    <t>1.29%</t>
-  </si>
-  <si>
-    <t>1.27%</t>
-  </si>
-  <si>
-    <t>1.26%</t>
-  </si>
-  <si>
-    <t>1.25%</t>
-  </si>
-  <si>
-    <t>1.22%</t>
+    <t>300124.SZ</t>
+  </si>
+  <si>
+    <t>398.73%</t>
+  </si>
+  <si>
+    <t>379.30%</t>
+  </si>
+  <si>
+    <t>376.10%</t>
+  </si>
+  <si>
+    <t>348.90%</t>
+  </si>
+  <si>
+    <t>341.08%</t>
+  </si>
+  <si>
+    <t>248.07%</t>
+  </si>
+  <si>
+    <t>243.18%</t>
+  </si>
+  <si>
+    <t>161.67%</t>
+  </si>
+  <si>
+    <t>158.75%</t>
+  </si>
+  <si>
+    <t>136.80%</t>
+  </si>
+  <si>
+    <t>134.42%</t>
+  </si>
+  <si>
+    <t>128.65%</t>
+  </si>
+  <si>
+    <t>127.38%</t>
+  </si>
+  <si>
+    <t>126.75%</t>
+  </si>
+  <si>
+    <t>126.70%</t>
+  </si>
+  <si>
+    <t>126.45%</t>
+  </si>
+  <si>
+    <t>126.43%</t>
+  </si>
+  <si>
+    <t>125.20%</t>
+  </si>
+  <si>
+    <t>121.60%</t>
+  </si>
+  <si>
+    <t>121.08%</t>
+  </si>
+  <si>
+    <t>五粮液</t>
+  </si>
+  <si>
+    <t>贵州茅台</t>
   </si>
   <si>
     <t>山西汾酒</t>
@@ -356,43 +362,37 @@
     <t>泸州老窖</t>
   </si>
   <si>
+    <t>洋河股份</t>
+  </si>
+  <si>
     <t>中国中免</t>
   </si>
   <si>
-    <t>贵州茅台</t>
-  </si>
-  <si>
-    <t>五粮液</t>
-  </si>
-  <si>
-    <t>洋河股份</t>
-  </si>
-  <si>
     <t>分众传媒</t>
   </si>
   <si>
-    <t>沃森生物</t>
+    <t>芒果超媒</t>
+  </si>
+  <si>
+    <t>酒鬼酒</t>
   </si>
   <si>
     <t>药明康德</t>
   </si>
   <si>
+    <t>赣锋锂业</t>
+  </si>
+  <si>
+    <t>恩捷股份</t>
+  </si>
+  <si>
+    <t>宏发股份</t>
+  </si>
+  <si>
     <t>智飞生物</t>
   </si>
   <si>
-    <t>芒果超媒</t>
-  </si>
-  <si>
-    <t>酒鬼酒</t>
-  </si>
-  <si>
-    <t>赣锋锂业</t>
-  </si>
-  <si>
-    <t>恩捷股份</t>
-  </si>
-  <si>
-    <t>宏发股份</t>
+    <t>恒瑞医药</t>
   </si>
   <si>
     <t>三花智控</t>
@@ -401,15 +401,21 @@
     <t>格林美</t>
   </si>
   <si>
-    <t>康泰生物</t>
-  </si>
-  <si>
     <t>宁德时代</t>
   </si>
   <si>
     <t>先导智能</t>
   </si>
   <si>
+    <t>汇川技术</t>
+  </si>
+  <si>
+    <t>酒类</t>
+  </si>
+  <si>
+    <t>茅台酒</t>
+  </si>
+  <si>
     <t>白酒</t>
   </si>
   <si>
@@ -419,37 +425,31 @@
     <t>商品贸易-免税商品</t>
   </si>
   <si>
-    <t>茅台酒</t>
-  </si>
-  <si>
-    <t>酒类</t>
-  </si>
-  <si>
     <t>楼宇媒体</t>
   </si>
   <si>
-    <t>13价肺炎球菌多糖结合疫苗(预充注射剂)</t>
+    <t>互联网视频业务</t>
+  </si>
+  <si>
+    <t>酒鬼系列</t>
   </si>
   <si>
     <t>中国区实验室服务</t>
   </si>
   <si>
+    <t>锂系列产品</t>
+  </si>
+  <si>
+    <t>膜类产品</t>
+  </si>
+  <si>
+    <t>继电器产品</t>
+  </si>
+  <si>
     <t>代理产品-二类苗</t>
   </si>
   <si>
-    <t>互联网视频业务</t>
-  </si>
-  <si>
-    <t>酒鬼系列</t>
-  </si>
-  <si>
-    <t>锂系列产品</t>
-  </si>
-  <si>
-    <t>膜类产品</t>
-  </si>
-  <si>
-    <t>继电器产品</t>
+    <t>抗肿瘤</t>
   </si>
   <si>
     <t>空调冰箱之元器件及部件</t>
@@ -458,73 +458,73 @@
     <t>三元材料</t>
   </si>
   <si>
-    <t>自主产品-二类疫苗</t>
-  </si>
-  <si>
     <t>动力电池系统</t>
   </si>
   <si>
     <t>锂电池设备</t>
   </si>
   <si>
-    <t>22.60%</t>
-  </si>
-  <si>
-    <t>4.71%</t>
-  </si>
-  <si>
-    <t>17.41%</t>
-  </si>
-  <si>
-    <t>9.82%</t>
-  </si>
-  <si>
-    <t>6.77%</t>
-  </si>
-  <si>
-    <t>-6.90%</t>
-  </si>
-  <si>
-    <t>-4.33%</t>
-  </si>
-  <si>
-    <t>69.93%</t>
-  </si>
-  <si>
-    <t>44.35%</t>
-  </si>
-  <si>
-    <t>26.92%</t>
-  </si>
-  <si>
-    <t>-3.09%</t>
-  </si>
-  <si>
-    <t>68.06%</t>
-  </si>
-  <si>
-    <t>21.15%</t>
-  </si>
-  <si>
-    <t>61.61%</t>
-  </si>
-  <si>
-    <t>13.98%</t>
-  </si>
-  <si>
-    <t>0.16%</t>
-  </si>
-  <si>
-    <t>37.76%</t>
-  </si>
-  <si>
-    <t>-14.20%</t>
-  </si>
-  <si>
-    <t>45.26%</t>
-  </si>
-  <si>
-    <t>11.23%</t>
+    <t>变频器类</t>
+  </si>
+  <si>
+    <t>-4.64%</t>
+  </si>
+  <si>
+    <t>2.40%</t>
+  </si>
+  <si>
+    <t>19.71%</t>
+  </si>
+  <si>
+    <t>-0.49%</t>
+  </si>
+  <si>
+    <t>-15.98%</t>
+  </si>
+  <si>
+    <t>8.97%</t>
+  </si>
+  <si>
+    <t>-13.42%</t>
+  </si>
+  <si>
+    <t>-17.29%</t>
+  </si>
+  <si>
+    <t>53.73%</t>
+  </si>
+  <si>
+    <t>47.28%</t>
+  </si>
+  <si>
+    <t>65.23%</t>
+  </si>
+  <si>
+    <t>92.74%</t>
+  </si>
+  <si>
+    <t>28.06%</t>
+  </si>
+  <si>
+    <t>20.25%</t>
+  </si>
+  <si>
+    <t>-32.63%</t>
+  </si>
+  <si>
+    <t>-0.43%</t>
+  </si>
+  <si>
+    <t>71.37%</t>
+  </si>
+  <si>
+    <t>66.49%</t>
+  </si>
+  <si>
+    <t>28.45%</t>
+  </si>
+  <si>
+    <t>38.18%</t>
   </si>
   <si>
     <t>一级标签</t>
@@ -536,43 +536,58 @@
     <t>食品饮料</t>
   </si>
   <si>
+    <t>锂电池</t>
+  </si>
+  <si>
     <t>医药生物</t>
   </si>
   <si>
-    <t>锂电池</t>
-  </si>
-  <si>
     <t>商业贸易</t>
   </si>
   <si>
+    <t>营销服务</t>
+  </si>
+  <si>
     <t>传媒娱乐</t>
   </si>
   <si>
     <t>电气设备</t>
   </si>
   <si>
-    <t>家电家具</t>
-  </si>
-  <si>
-    <t>45.73%</t>
-  </si>
-  <si>
-    <t>15.41%</t>
-  </si>
-  <si>
-    <t>14.65%</t>
-  </si>
-  <si>
-    <t>9.21%</t>
-  </si>
-  <si>
-    <t>9.17%</t>
-  </si>
-  <si>
-    <t>2.93%</t>
-  </si>
-  <si>
-    <t>2.90%</t>
+    <t>生物制品</t>
+  </si>
+  <si>
+    <t>家用电器</t>
+  </si>
+  <si>
+    <t>光伏太阳能</t>
+  </si>
+  <si>
+    <t>21.47%</t>
+  </si>
+  <si>
+    <t>6.82%</t>
+  </si>
+  <si>
+    <t>2.82%</t>
+  </si>
+  <si>
+    <t>2.66%</t>
+  </si>
+  <si>
+    <t>2.61%</t>
+  </si>
+  <si>
+    <t>1.73%</t>
+  </si>
+  <si>
+    <t>1.37%</t>
+  </si>
+  <si>
+    <t>1.36%</t>
+  </si>
+  <si>
+    <t>1.30%</t>
   </si>
 </sst>
 </file>
@@ -936,7 +951,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1002,16 +1017,16 @@
         <v>0.9953036260375711</v>
       </c>
       <c r="C3">
+        <v>1.067812326142054</v>
+      </c>
+      <c r="D3">
         <v>1.007722007722008</v>
       </c>
-      <c r="D3">
-        <v>1.067860508953817</v>
-      </c>
       <c r="E3">
-        <v>1.032805271274359</v>
+        <v>1.032806243888038</v>
       </c>
       <c r="F3">
-        <v>1.025922853496939</v>
+        <v>1.025911050947418</v>
       </c>
       <c r="G3">
         <v>1.018168368380631</v>
@@ -1028,16 +1043,16 @@
         <v>1.002129750982962</v>
       </c>
       <c r="C4">
+        <v>1.07442665512765</v>
+      </c>
+      <c r="D4">
         <v>1.002895752895753</v>
       </c>
-      <c r="D4">
-        <v>1.074458058435438</v>
-      </c>
       <c r="E4">
-        <v>1.085658208327492</v>
+        <v>1.085650497259996</v>
       </c>
       <c r="F4">
-        <v>1.041285442660411</v>
+        <v>1.04127566406659</v>
       </c>
       <c r="G4">
         <v>1.027111201157197</v>
@@ -1054,16 +1069,16 @@
         <v>1.027522935779817</v>
       </c>
       <c r="C5">
+        <v>1.05934351239414</v>
+      </c>
+      <c r="D5">
         <v>0.9973455598455598</v>
       </c>
-      <c r="D5">
-        <v>1.05937794533459</v>
-      </c>
       <c r="E5">
-        <v>1.088812561334642</v>
+        <v>1.088805653449453</v>
       </c>
       <c r="F5">
-        <v>1.043264750573652</v>
+        <v>1.043254415367243</v>
       </c>
       <c r="G5">
         <v>1.025290909062353</v>
@@ -1080,16 +1095,16 @@
         <v>1.020587592835299</v>
       </c>
       <c r="C6">
+        <v>1.086666254558942</v>
+      </c>
+      <c r="D6">
         <v>0.9835907335907337</v>
       </c>
-      <c r="D6">
-        <v>1.086710650329878</v>
-      </c>
       <c r="E6">
-        <v>1.104584326370391</v>
+        <v>1.104581434396738</v>
       </c>
       <c r="F6">
-        <v>1.048868325781575</v>
+        <v>1.048856503845428</v>
       </c>
       <c r="G6">
         <v>1.026858339183711</v>
@@ -1106,16 +1121,16 @@
         <v>1.034458278724334</v>
       </c>
       <c r="C7">
+        <v>1.07727019842987</v>
+      </c>
+      <c r="D7">
         <v>1.001206563706564</v>
       </c>
-      <c r="D7">
-        <v>1.077285579641847</v>
-      </c>
       <c r="E7">
-        <v>1.071568764895556</v>
+        <v>1.071572227245051</v>
       </c>
       <c r="F7">
-        <v>1.046129796742075</v>
+        <v>1.046126817026455</v>
       </c>
       <c r="G7">
         <v>1.029917812005761</v>
@@ -1132,16 +1147,16 @@
         <v>1.022990388816077</v>
       </c>
       <c r="C8">
+        <v>1.040489583977252</v>
+      </c>
+      <c r="D8">
         <v>1.008445945945946</v>
       </c>
-      <c r="D8">
-        <v>1.04052780395853</v>
-      </c>
       <c r="E8">
-        <v>1.036800785083415</v>
+        <v>1.036791704337879</v>
       </c>
       <c r="F8">
-        <v>1.027191230950992</v>
+        <v>1.027179405769288</v>
       </c>
       <c r="G8">
         <v>1.013866573688848</v>
@@ -1158,16 +1173,16 @@
         <v>1.035878112712975</v>
       </c>
       <c r="C9">
+        <v>1.063114298077517</v>
+      </c>
+      <c r="D9">
         <v>1.005912162162162</v>
       </c>
-      <c r="D9">
-        <v>1.063147973609802</v>
-      </c>
       <c r="E9">
-        <v>1.068484508621898</v>
+        <v>1.068490875878739</v>
       </c>
       <c r="F9">
-        <v>1.04335568927671</v>
+        <v>1.043348862207848</v>
       </c>
       <c r="G9">
         <v>1.027660901099557</v>
@@ -1184,16 +1199,16 @@
         <v>1.020259938837921</v>
       </c>
       <c r="C10">
+        <v>1.032020770229338</v>
+      </c>
+      <c r="D10">
         <v>1.001568532818533</v>
       </c>
-      <c r="D10">
-        <v>1.032045240339303</v>
-      </c>
       <c r="E10">
-        <v>1.058600869199495</v>
+        <v>1.058601029577283</v>
       </c>
       <c r="F10">
-        <v>1.028118645298813</v>
+        <v>1.028112567865769</v>
       </c>
       <c r="G10">
         <v>1.020386015005238</v>
@@ -1210,16 +1225,16 @@
         <v>1.012833114897335</v>
       </c>
       <c r="C11">
+        <v>1.005625270445694</v>
+      </c>
+      <c r="D11">
         <v>0.9898648648648649</v>
       </c>
-      <c r="D11">
-        <v>1.005655042412818</v>
-      </c>
       <c r="E11">
-        <v>1.025445114257676</v>
+        <v>1.025444212779305</v>
       </c>
       <c r="F11">
-        <v>1.008449534108173</v>
+        <v>1.0084418657468</v>
       </c>
       <c r="G11">
         <v>1.011430617658561</v>
@@ -1236,16 +1251,16 @@
         <v>1.00802752293578</v>
       </c>
       <c r="C12">
+        <v>1.02824998454596</v>
+      </c>
+      <c r="D12">
         <v>0.990588803088803</v>
       </c>
-      <c r="D12">
-        <v>1.02827521206409</v>
-      </c>
       <c r="E12">
-        <v>0.9936912939857002</v>
+        <v>0.9936896876210861</v>
       </c>
       <c r="F12">
-        <v>1.005145708018593</v>
+        <v>1.005138999547907</v>
       </c>
       <c r="G12">
         <v>1.007914108598721</v>
@@ -1262,16 +1277,16 @@
         <v>1.012013979903888</v>
       </c>
       <c r="C13">
+        <v>1.034864313531557</v>
+      </c>
+      <c r="D13">
         <v>1.003257722007722</v>
       </c>
-      <c r="D13">
-        <v>1.034872761545712</v>
-      </c>
       <c r="E13">
-        <v>0.975396046544231</v>
+        <v>0.9753860914810782</v>
       </c>
       <c r="F13">
-        <v>1.006385127500388</v>
+        <v>1.006380526731061</v>
       </c>
       <c r="G13">
         <v>1.023142367573358</v>
@@ -1288,16 +1303,16 @@
         <v>0.9958497160332024</v>
       </c>
       <c r="C14">
+        <v>1.008468813747914</v>
+      </c>
+      <c r="D14">
         <v>0.9969835907335908</v>
       </c>
-      <c r="D14">
-        <v>1.008482563619227</v>
-      </c>
       <c r="E14">
-        <v>0.9556988644329173</v>
+        <v>0.9556986549070982</v>
       </c>
       <c r="F14">
-        <v>0.9892536837047343</v>
+        <v>0.9892501938554512</v>
       </c>
       <c r="G14">
         <v>1.017160061629216</v>
@@ -1314,16 +1329,16 @@
         <v>1.016164263870686</v>
       </c>
       <c r="C15">
+        <v>1.051801941027385</v>
+      </c>
+      <c r="D15">
         <v>1.003137065637066</v>
       </c>
-      <c r="D15">
-        <v>1.051837888784166</v>
-      </c>
       <c r="E15">
-        <v>0.9630590214496003</v>
+        <v>0.9630606860158312</v>
       </c>
       <c r="F15">
-        <v>1.00854955993538</v>
+        <v>1.008540989137742</v>
       </c>
       <c r="G15">
         <v>1.026434284942462</v>
@@ -1340,16 +1355,16 @@
         <v>1.045380078636959</v>
       </c>
       <c r="C16">
+        <v>1.073499412746492</v>
+      </c>
+      <c r="D16">
         <v>1.012427606177606</v>
       </c>
-      <c r="D16">
-        <v>1.073515551366635</v>
-      </c>
       <c r="E16">
-        <v>0.9917285854479181</v>
+        <v>0.9917338598077385</v>
       </c>
       <c r="F16">
-        <v>1.03076295540728</v>
+        <v>1.030760239342199</v>
       </c>
       <c r="G16">
         <v>1.04011081950838</v>
@@ -1366,16 +1381,16 @@
         <v>1.092726081258191</v>
       </c>
       <c r="C17">
+        <v>1.100822154911294</v>
+      </c>
+      <c r="D17">
         <v>1.014720077220077</v>
       </c>
-      <c r="D17">
-        <v>1.100848256361923</v>
-      </c>
       <c r="E17">
-        <v>0.9842983316977428</v>
+        <v>0.9842980238758603</v>
       </c>
       <c r="F17">
-        <v>1.048148186634484</v>
+        <v>1.048141584316356</v>
       </c>
       <c r="G17">
         <v>1.042515364113389</v>
@@ -1392,16 +1407,16 @@
         <v>1.081039755351682</v>
       </c>
       <c r="C18">
+        <v>1.097978611609075</v>
+      </c>
+      <c r="D18">
         <v>1.014116795366795</v>
       </c>
-      <c r="D18">
-        <v>1.098020735155514</v>
-      </c>
       <c r="E18">
-        <v>1.046824617972802</v>
+        <v>1.046829160285625</v>
       </c>
       <c r="F18">
-        <v>1.060000475961698</v>
+        <v>1.059991080653294</v>
       </c>
       <c r="G18">
         <v>1.043693292561303</v>
@@ -1418,16 +1433,16 @@
         <v>1.051660113586719</v>
       </c>
       <c r="C19">
+        <v>1.067812326142054</v>
+      </c>
+      <c r="D19">
         <v>1.009049227799228</v>
       </c>
-      <c r="D19">
-        <v>1.067860508953817</v>
-      </c>
       <c r="E19">
-        <v>1.023342212252909</v>
+        <v>1.023340775319667</v>
       </c>
       <c r="F19">
-        <v>1.037978015648168</v>
+        <v>1.037965610711917</v>
       </c>
       <c r="G19">
         <v>1.026047924411546</v>
@@ -1444,16 +1459,16 @@
         <v>1.042103538663172</v>
       </c>
       <c r="C20">
+        <v>1.073499412746492</v>
+      </c>
+      <c r="D20">
         <v>1.037162162162162</v>
       </c>
-      <c r="D20">
-        <v>1.073515551366635</v>
-      </c>
       <c r="E20">
-        <v>0.9939015841861768</v>
+        <v>0.9938926508847353</v>
       </c>
       <c r="F20">
-        <v>1.036670709094537</v>
+        <v>1.03666444111414</v>
       </c>
       <c r="G20">
         <v>1.02984870687015</v>
@@ -1470,16 +1485,16 @@
         <v>1.010594145915247</v>
       </c>
       <c r="C21">
+        <v>1.033875254991655</v>
+      </c>
+      <c r="D21">
         <v>1.021718146718147</v>
       </c>
-      <c r="D21">
-        <v>1.033930254476909</v>
-      </c>
       <c r="E21">
-        <v>0.981143978690593</v>
+        <v>0.9811428676864034</v>
       </c>
       <c r="F21">
-        <v>1.011846631450224</v>
+        <v>1.011832603827863</v>
       </c>
       <c r="G21">
         <v>1.007424090364388</v>
@@ -1496,16 +1511,16 @@
         <v>0.9966688510266491</v>
       </c>
       <c r="C22">
+        <v>1.015021326574767</v>
+      </c>
+      <c r="D22">
         <v>1.020632239382239</v>
       </c>
-      <c r="D22">
-        <v>1.015080113100848</v>
-      </c>
       <c r="E22">
-        <v>0.9991588391980932</v>
+        <v>0.9991512445338303</v>
       </c>
       <c r="F22">
-        <v>1.007885010676957</v>
+        <v>1.007868415379372</v>
       </c>
       <c r="G22">
         <v>0.9967065120596316</v>
@@ -1522,16 +1537,16 @@
         <v>1.016546526867628</v>
       </c>
       <c r="C23">
+        <v>1.016010385114669</v>
+      </c>
+      <c r="D23">
         <v>1.034749034749035</v>
       </c>
-      <c r="D23">
-        <v>1.016022620169651</v>
-      </c>
       <c r="E23">
-        <v>0.9969858404598345</v>
+        <v>0.9969924534568335</v>
       </c>
       <c r="F23">
-        <v>1.016076005561537</v>
+        <v>1.016074600047041</v>
       </c>
       <c r="G23">
         <v>1.004110184997589</v>
@@ -1548,16 +1563,16 @@
         <v>1.028615115771079</v>
       </c>
       <c r="C24">
+        <v>1.057489027631823</v>
+      </c>
+      <c r="D24">
         <v>1.038368725868726</v>
       </c>
-      <c r="D24">
-        <v>1.057492931196984</v>
-      </c>
       <c r="E24">
-        <v>1.040515911958503</v>
+        <v>1.040518847906711</v>
       </c>
       <c r="F24">
-        <v>1.041248171198823</v>
+        <v>1.041247929294585</v>
       </c>
       <c r="G24">
         <v>1.013770768841751</v>
@@ -1574,16 +1589,16 @@
         <v>1.035168195718654</v>
       </c>
       <c r="C25">
+        <v>1.054645484329604</v>
+      </c>
+      <c r="D25">
         <v>1.041867760617761</v>
       </c>
-      <c r="D25">
-        <v>1.054665409990575</v>
-      </c>
       <c r="E25">
-        <v>1.040095331557549</v>
+        <v>1.040094470173626</v>
       </c>
       <c r="F25">
-        <v>1.042949174471135</v>
+        <v>1.042943977709911</v>
       </c>
       <c r="G25">
         <v>1.00506038061224</v>
@@ -1600,16 +1615,16 @@
         <v>1.026212319790301</v>
       </c>
       <c r="C26">
+        <v>1.031093527848179</v>
+      </c>
+      <c r="D26">
         <v>1.006515444015444</v>
       </c>
-      <c r="D26">
-        <v>1.0311027332705</v>
-      </c>
       <c r="E26">
-        <v>1.045843263703911</v>
+        <v>1.045832795173165</v>
       </c>
       <c r="F26">
-        <v>1.027418440195039</v>
+        <v>1.027413521706772</v>
       </c>
       <c r="G26">
         <v>0.9939815709167896</v>
@@ -1626,16 +1641,16 @@
         <v>1.042158147662735</v>
       </c>
       <c r="C27">
+        <v>1.002781727143475</v>
+      </c>
+      <c r="D27">
         <v>1.006756756756757</v>
       </c>
-      <c r="D27">
-        <v>1.002827521206409</v>
-      </c>
       <c r="E27">
-        <v>1.057339127996635</v>
+        <v>1.057327896378028</v>
       </c>
       <c r="F27">
-        <v>1.027270388405634</v>
+        <v>1.027256131985249</v>
       </c>
       <c r="G27">
         <v>0.9800160512383169</v>
@@ -1652,16 +1667,16 @@
         <v>1.051823940585408</v>
       </c>
       <c r="C28">
+        <v>1.019781170798047</v>
+      </c>
+      <c r="D28">
         <v>1.021718146718147</v>
       </c>
-      <c r="D28">
-        <v>1.019792648444863</v>
-      </c>
       <c r="E28">
-        <v>1.05747932146362</v>
+        <v>1.057475506024319</v>
       </c>
       <c r="F28">
-        <v>1.03770351430301</v>
+        <v>1.03769969103148</v>
       </c>
       <c r="G28">
         <v>0.9930973392952219</v>
@@ -1678,16 +1693,16 @@
         <v>1.066950633464395</v>
       </c>
       <c r="C29">
+        <v>1.049947456265068</v>
+      </c>
+      <c r="D29">
         <v>1.036317567567568</v>
       </c>
-      <c r="D29">
-        <v>1.04995287464656</v>
-      </c>
       <c r="E29">
-        <v>1.082223468386373</v>
+        <v>1.082218572983745</v>
       </c>
       <c r="F29">
-        <v>1.058861136016224</v>
+        <v>1.058858557570194</v>
       </c>
       <c r="G29">
         <v>1.014256075362292</v>
@@ -1704,16 +1719,16 @@
         <v>1.105286151157711</v>
       </c>
       <c r="C30">
+        <v>1.062187055696359</v>
+      </c>
+      <c r="D30">
         <v>1.048262548262548</v>
       </c>
-      <c r="D30">
-        <v>1.062205466540999</v>
-      </c>
       <c r="E30">
-        <v>1.135426889106967</v>
+        <v>1.135431850471428</v>
       </c>
       <c r="F30">
-        <v>1.087795263767056</v>
+        <v>1.087791901397012</v>
       </c>
       <c r="G30">
         <v>1.024824449396979</v>
@@ -1730,16 +1745,16 @@
         <v>1.053134556574924</v>
       </c>
       <c r="C31">
+        <v>1.039562341596093</v>
+      </c>
+      <c r="D31">
         <v>1.062017374517374</v>
       </c>
-      <c r="D31">
-        <v>1.039585296889727</v>
-      </c>
       <c r="E31">
-        <v>1.095752137950371</v>
+        <v>1.095743306825101</v>
       </c>
       <c r="F31">
-        <v>1.062622341483099</v>
+        <v>1.062614394878373</v>
       </c>
       <c r="G31">
         <v>1.038860644782327</v>
@@ -1756,16 +1771,16 @@
         <v>1.045543905635649</v>
       </c>
       <c r="C32">
+        <v>1.024479198862583</v>
+      </c>
+      <c r="D32">
         <v>1.075530888030888</v>
       </c>
-      <c r="D32">
-        <v>1.024505183788878</v>
-      </c>
       <c r="E32">
-        <v>1.089373335202579</v>
+        <v>1.089377640828828</v>
       </c>
       <c r="F32">
-        <v>1.058738328164499</v>
+        <v>1.058732908339487</v>
       </c>
       <c r="G32">
         <v>1.052829305603327</v>
@@ -1782,16 +1797,16 @@
         <v>1.018130187854958</v>
       </c>
       <c r="C33">
+        <v>1.007479755208011</v>
+      </c>
+      <c r="D33">
         <v>1.04753861003861</v>
       </c>
-      <c r="D33">
-        <v>1.007540056550424</v>
-      </c>
       <c r="E33">
-        <v>1.003294546474134</v>
+        <v>1.003284314629961</v>
       </c>
       <c r="F33">
-        <v>1.019125850229532</v>
+        <v>1.019108216932885</v>
       </c>
       <c r="G33">
         <v>1.045538713796369</v>
@@ -1808,16 +1823,16 @@
         <v>1.018840104849279</v>
       </c>
       <c r="C34">
+        <v>0.9896148853310256</v>
+      </c>
+      <c r="D34">
         <v>1.032335907335907</v>
       </c>
-      <c r="D34">
-        <v>0.9896324222431668</v>
-      </c>
       <c r="E34">
-        <v>1.006589092948268</v>
+        <v>1.006587080465708</v>
       </c>
       <c r="F34">
-        <v>1.011849381844155</v>
+        <v>1.01184449449548</v>
       </c>
       <c r="G34">
         <v>1.041481928221752</v>
@@ -1834,16 +1849,16 @@
         <v>0.9934469200524246</v>
       </c>
       <c r="C35">
+        <v>0.9547505717994684</v>
+      </c>
+      <c r="D35">
         <v>1.030043436293436</v>
       </c>
-      <c r="D35">
-        <v>0.9547596606974551</v>
-      </c>
       <c r="E35">
-        <v>0.9510023832889387</v>
+        <v>0.9509935974315922</v>
       </c>
       <c r="F35">
-        <v>0.9823131000830636</v>
+        <v>0.9823086313942304</v>
       </c>
       <c r="G35">
         <v>1.026555218929781</v>
@@ -1860,16 +1875,16 @@
         <v>0.9901157710790738</v>
       </c>
       <c r="C36">
+        <v>0.937751128144897</v>
+      </c>
+      <c r="D36">
         <v>1.025458494208494</v>
       </c>
-      <c r="D36">
-        <v>0.9377945334590009</v>
-      </c>
       <c r="E36">
-        <v>0.9374036169914481</v>
+        <v>0.9373950587670905</v>
       </c>
       <c r="F36">
-        <v>0.9726931039345041</v>
+        <v>0.9726801130498889</v>
       </c>
       <c r="G36">
         <v>1.020737822968348</v>
@@ -1886,16 +1901,16 @@
         <v>0.9837265181301879</v>
       </c>
       <c r="C37">
+        <v>0.9179699573468506</v>
+      </c>
+      <c r="D37">
         <v>1.005912162162162</v>
       </c>
-      <c r="D37">
-        <v>0.9180018850141376</v>
-      </c>
       <c r="E37">
-        <v>0.9111874386653581</v>
+        <v>0.9111943465505471</v>
       </c>
       <c r="F37">
-        <v>0.9547070009929615</v>
+        <v>0.954700746047437</v>
       </c>
       <c r="G37">
         <v>0.9995665223311676</v>
@@ -1912,16 +1927,16 @@
         <v>0.9968872870249017</v>
       </c>
       <c r="C38">
+        <v>0.953761513259566</v>
+      </c>
+      <c r="D38">
         <v>1.035714285714286</v>
       </c>
-      <c r="D38">
-        <v>0.9538171536286523</v>
-      </c>
       <c r="E38">
-        <v>0.9165147904107669</v>
+        <v>0.9165082938170009</v>
       </c>
       <c r="F38">
-        <v>0.9757333791946516</v>
+        <v>0.9757178449539385</v>
       </c>
       <c r="G38">
         <v>1.019055741144727</v>
@@ -1938,16 +1953,16 @@
         <v>0.9799038881607689</v>
       </c>
       <c r="C39">
+        <v>0.9575322989429437</v>
+      </c>
+      <c r="D39">
         <v>1.02726833976834</v>
       </c>
-      <c r="D39">
-        <v>0.9575871819038644</v>
-      </c>
       <c r="E39">
-        <v>0.891279966353568</v>
+        <v>0.8912854955071314</v>
       </c>
       <c r="F39">
-        <v>0.9640098440466353</v>
+        <v>0.9639975055947959</v>
       </c>
       <c r="G39">
         <v>1.010400322909452</v>
@@ -1964,16 +1979,16 @@
         <v>0.992682394058541</v>
       </c>
       <c r="C40">
+        <v>0.9650738703096989</v>
+      </c>
+      <c r="D40">
         <v>1.040781853281853</v>
       </c>
-      <c r="D40">
-        <v>0.9651272384542884</v>
-      </c>
       <c r="E40">
-        <v>0.9129398570026636</v>
+        <v>0.9129287598944591</v>
       </c>
       <c r="F40">
-        <v>0.9778828356993365</v>
+        <v>0.9778667193861381</v>
       </c>
       <c r="G40">
         <v>1.024758485403896</v>
@@ -1990,16 +2005,16 @@
         <v>0.9588248143294016</v>
       </c>
       <c r="C41">
+        <v>0.9179699573468506</v>
+      </c>
+      <c r="D41">
         <v>1.02159749034749</v>
       </c>
-      <c r="D41">
-        <v>0.9180018850141376</v>
-      </c>
       <c r="E41">
-        <v>0.8674470769662135</v>
+        <v>0.8674465376312342</v>
       </c>
       <c r="F41">
-        <v>0.9414678166643108</v>
+        <v>0.9414596999137442</v>
       </c>
       <c r="G41">
         <v>1.005478152568434</v>
@@ -2016,16 +2031,16 @@
         <v>0.9660878112712975</v>
       </c>
       <c r="C42">
+        <v>0.9245842863324474</v>
+      </c>
+      <c r="D42">
         <v>1.024372586872587</v>
       </c>
-      <c r="D42">
-        <v>0.9245994344957587</v>
-      </c>
       <c r="E42">
-        <v>0.8776812000560773</v>
+        <v>0.8776869568426298</v>
       </c>
       <c r="F42">
-        <v>0.9481852581739301</v>
+        <v>0.9481829103297403</v>
       </c>
       <c r="G42">
         <v>1.005715308829281</v>
@@ -2042,16 +2057,16 @@
         <v>0.935998252512014</v>
       </c>
       <c r="C43">
+        <v>0.8811893428942326</v>
+      </c>
+      <c r="D43">
         <v>1.004826254826255</v>
       </c>
-      <c r="D43">
-        <v>0.8812441093308201</v>
-      </c>
       <c r="E43">
-        <v>0.8151549137810177</v>
+        <v>0.8151558204328654</v>
       </c>
       <c r="F43">
-        <v>0.9093058826125267</v>
+        <v>0.9092924176663417</v>
       </c>
       <c r="G43">
         <v>0.9826137761087841</v>
@@ -2068,16 +2083,16 @@
         <v>0.9020860637833115</v>
       </c>
       <c r="C44">
+        <v>0.8670952587006244</v>
+      </c>
+      <c r="D44">
         <v>0.9974662162162162</v>
       </c>
-      <c r="D44">
-        <v>0.8671065032987748</v>
-      </c>
       <c r="E44">
-        <v>0.7889387354549277</v>
+        <v>0.7889366570105357</v>
       </c>
       <c r="F44">
-        <v>0.8888993796883076</v>
+        <v>0.888896048927672</v>
       </c>
       <c r="G44">
         <v>0.9593049279814547</v>
@@ -2094,16 +2109,16 @@
         <v>0.9068916557448669</v>
       </c>
       <c r="C45">
+        <v>0.882178401434135</v>
+      </c>
+      <c r="D45">
         <v>0.9885376447876448</v>
       </c>
-      <c r="D45">
-        <v>0.8821866163996231</v>
-      </c>
       <c r="E45">
-        <v>0.8178886863872143</v>
+        <v>0.8178865988892374</v>
       </c>
       <c r="F45">
-        <v>0.8988761508298373</v>
+        <v>0.898873575213971</v>
       </c>
       <c r="G45">
         <v>0.952121135020441</v>
@@ -2120,16 +2135,16 @@
         <v>0.922346002621232</v>
       </c>
       <c r="C46">
+        <v>0.9066576002967175</v>
+      </c>
+      <c r="D46">
         <v>0.9978281853281853</v>
       </c>
-      <c r="D46">
-        <v>0.9066918001885014</v>
-      </c>
       <c r="E46">
-        <v>0.8495023131922051</v>
+        <v>0.8494935144011662</v>
       </c>
       <c r="F46">
-        <v>0.9190920753325309</v>
+        <v>0.9190813256618252</v>
       </c>
       <c r="G46">
         <v>0.9759262836671583</v>
@@ -2146,16 +2161,16 @@
         <v>0.9228374836173001</v>
       </c>
       <c r="C47">
+        <v>0.9132719292823145</v>
+      </c>
+      <c r="D47">
         <v>0.9980694980694982</v>
       </c>
-      <c r="D47">
-        <v>0.9132893496701224</v>
-      </c>
       <c r="E47">
-        <v>0.8528669563998317</v>
+        <v>0.8528700850600587</v>
       </c>
       <c r="F47">
-        <v>0.9217658219391881</v>
+        <v>0.9217622490072929</v>
       </c>
       <c r="G47">
         <v>0.9772691220977807</v>
@@ -2172,16 +2187,16 @@
         <v>0.8999017038007864</v>
       </c>
       <c r="C48">
+        <v>0.8897199728008902</v>
+      </c>
+      <c r="D48">
         <v>0.9827461389961391</v>
       </c>
-      <c r="D48">
-        <v>0.889726672950047</v>
-      </c>
       <c r="E48">
-        <v>0.8111593999719613</v>
+        <v>0.8111519087772386</v>
       </c>
       <c r="F48">
-        <v>0.8958834789297334</v>
+        <v>0.8958799310937636</v>
       </c>
       <c r="G48">
         <v>0.9696502808966706</v>
@@ -2198,16 +2213,16 @@
         <v>0.9131170816950633</v>
       </c>
       <c r="C49">
+        <v>0.8906472151820487</v>
+      </c>
+      <c r="D49">
         <v>0.9908301158301159</v>
       </c>
-      <c r="D49">
-        <v>0.8906691800188501</v>
-      </c>
       <c r="E49">
-        <v>0.8331697742885182</v>
+        <v>0.8331641972802923</v>
       </c>
       <c r="F49">
-        <v>0.9069465379581368</v>
+        <v>0.9069396524968801</v>
       </c>
       <c r="G49">
         <v>0.9730065916875945</v>
@@ -2224,16 +2239,16 @@
         <v>0.9166120576671036</v>
       </c>
       <c r="C50">
+        <v>0.912344686901156</v>
+      </c>
+      <c r="D50">
         <v>0.9973455598455598</v>
       </c>
-      <c r="D50">
-        <v>0.9123468426013195</v>
-      </c>
       <c r="E50">
-        <v>0.8435440908453665</v>
+        <v>0.8435337749321918</v>
       </c>
       <c r="F50">
-        <v>0.9174621377398373</v>
+        <v>0.9174590198365029</v>
       </c>
       <c r="G50">
         <v>0.9777371523344186</v>
@@ -2250,16 +2265,16 @@
         <v>0.9333224115334208</v>
       </c>
       <c r="C51">
+        <v>0.9132719292823145</v>
+      </c>
+      <c r="D51">
         <v>1.005429536679537</v>
       </c>
-      <c r="D51">
-        <v>0.9132893496701224</v>
-      </c>
       <c r="E51">
-        <v>0.8684284312351044</v>
+        <v>0.868424451537908</v>
       </c>
       <c r="F51">
-        <v>0.930117432279546</v>
+        <v>0.930112082258295</v>
       </c>
       <c r="G51">
         <v>0.9853544229642648</v>
@@ -2276,16 +2291,16 @@
         <v>0.9251856705985146</v>
       </c>
       <c r="C52">
+        <v>0.8849601285776102</v>
+      </c>
+      <c r="D52">
         <v>0.9863658301158301</v>
       </c>
-      <c r="D52">
-        <v>0.8850141376060321</v>
-      </c>
       <c r="E52">
-        <v>0.8452264124491798</v>
+        <v>0.8452312858645312</v>
       </c>
       <c r="F52">
-        <v>0.9104480126923892</v>
+        <v>0.9104357287891216</v>
       </c>
       <c r="G52">
         <v>0.9747907606433689</v>
@@ -2302,16 +2317,16 @@
         <v>0.9340323285277413</v>
       </c>
       <c r="C53">
+        <v>0.8962724856277431</v>
+      </c>
+      <c r="D53">
         <v>0.9956563706563707</v>
       </c>
-      <c r="D53">
-        <v>0.8963242224316682</v>
-      </c>
       <c r="E53">
-        <v>0.8490817327912519</v>
+        <v>0.8490875878738676</v>
       </c>
       <c r="F53">
-        <v>0.9187736636017581</v>
+        <v>0.9187621931714307</v>
       </c>
       <c r="G53">
         <v>0.9903535512972134</v>
@@ -2328,16 +2343,16 @@
         <v>0.9327763215377894</v>
       </c>
       <c r="C54">
+        <v>0.8670952587006244</v>
+      </c>
+      <c r="D54">
         <v>0.9884169884169884</v>
       </c>
-      <c r="D54">
-        <v>0.8671065032987748</v>
-      </c>
       <c r="E54">
-        <v>0.8570727604093648</v>
+        <v>0.8570769599793348</v>
       </c>
       <c r="F54">
-        <v>0.9113431434157293</v>
+        <v>0.9113413821586843</v>
       </c>
       <c r="G54">
         <v>0.9767649687220733</v>
@@ -2354,16 +2369,16 @@
         <v>0.9249672346002621</v>
       </c>
       <c r="C55">
+        <v>0.8435433022192002</v>
+      </c>
+      <c r="D55">
         <v>0.9791264478764479</v>
       </c>
-      <c r="D55">
-        <v>0.8435438265786994</v>
-      </c>
       <c r="E55">
-        <v>0.8576335342773026</v>
+        <v>0.8576304961529237</v>
       </c>
       <c r="F55">
-        <v>0.901317760833178</v>
+        <v>0.9013168702122084</v>
       </c>
       <c r="G55">
         <v>0.9647296811269164</v>
@@ -2380,16 +2395,16 @@
         <v>0.9295543905635649</v>
       </c>
       <c r="C56">
+        <v>0.8576373864128083</v>
+      </c>
+      <c r="D56">
         <v>0.981418918918919</v>
       </c>
-      <c r="D56">
-        <v>0.8576814326107447</v>
-      </c>
       <c r="E56">
-        <v>0.8513248282630029</v>
+        <v>0.8513201837740096</v>
       </c>
       <c r="F56">
-        <v>0.9049948925890579</v>
+        <v>0.9049827199173255</v>
       </c>
       <c r="G56">
         <v>0.9670651205963146</v>
@@ -2406,16 +2421,16 @@
         <v>0.9548383573612932</v>
       </c>
       <c r="C57">
+        <v>0.8934907584842678</v>
+      </c>
+      <c r="D57">
         <v>0.9973455598455598</v>
       </c>
-      <c r="D57">
-        <v>0.8934967012252591</v>
-      </c>
       <c r="E57">
-        <v>0.8823776812000559</v>
+        <v>0.8823735631123494</v>
       </c>
       <c r="F57">
-        <v>0.932014574908042</v>
+        <v>0.9320120597008675</v>
       </c>
       <c r="G57">
         <v>0.9818881721848689</v>
@@ -2432,16 +2447,16 @@
         <v>0.9541830493665356</v>
       </c>
       <c r="C58">
+        <v>0.882178401434135</v>
+      </c>
+      <c r="D58">
         <v>0.9971042471042472</v>
       </c>
-      <c r="D58">
-        <v>0.8821866163996231</v>
-      </c>
       <c r="E58">
-        <v>0.8982195429692976</v>
+        <v>0.8982231488827795</v>
       </c>
       <c r="F58">
-        <v>0.9329233639599259</v>
+        <v>0.9329222116969244</v>
       </c>
       <c r="G58">
         <v>0.9823829021329928</v>
@@ -2458,16 +2473,16 @@
         <v>0.959480122324159</v>
       </c>
       <c r="C59">
+        <v>0.8925016999443655</v>
+      </c>
+      <c r="D59">
         <v>0.9954150579150579</v>
       </c>
-      <c r="D59">
-        <v>0.8925541941564561</v>
-      </c>
       <c r="E59">
-        <v>0.9017944763774008</v>
+        <v>0.9017842315995351</v>
       </c>
       <c r="F59">
-        <v>0.9373109626932685</v>
+        <v>0.9372952779457794</v>
       </c>
       <c r="G59">
         <v>0.9863752942857905</v>
@@ -2484,16 +2499,16 @@
         <v>0.955166011358672</v>
       </c>
       <c r="C60">
+        <v>0.8811893428942326</v>
+      </c>
+      <c r="D60">
         <v>0.9913127413127414</v>
       </c>
-      <c r="D60">
-        <v>0.8812441093308201</v>
-      </c>
       <c r="E60">
-        <v>0.8860227113416514</v>
+        <v>0.8860269018580363</v>
       </c>
       <c r="F60">
-        <v>0.9284363933359712</v>
+        <v>0.9284237493559206</v>
       </c>
       <c r="G60">
         <v>0.9822462624330348</v>
@@ -2510,16 +2525,16 @@
         <v>0.9627020532983835</v>
       </c>
       <c r="C61">
+        <v>0.898188786548804</v>
+      </c>
+      <c r="D61">
         <v>1.00132722007722</v>
       </c>
-      <c r="D61">
-        <v>0.8982092365692743</v>
-      </c>
       <c r="E61">
-        <v>0.9074723117902705</v>
+        <v>0.9074672029817148</v>
       </c>
       <c r="F61">
-        <v>0.9424277054337871</v>
+        <v>0.9424213157265305</v>
       </c>
       <c r="G61">
         <v>0.9912911823417532</v>
@@ -2536,16 +2551,16 @@
         <v>0.9664700742682395</v>
       </c>
       <c r="C62">
+        <v>0.9095011435989369</v>
+      </c>
+      <c r="D62">
         <v>1.011703667953668</v>
       </c>
-      <c r="D62">
-        <v>0.9095193213949105</v>
-      </c>
       <c r="E62">
-        <v>0.9508621898219544</v>
+        <v>0.9508644389910882</v>
       </c>
       <c r="F62">
-        <v>0.959638813359693</v>
+        <v>0.9596348312029831</v>
       </c>
       <c r="G62">
         <v>0.9936391863812625</v>
@@ -2562,16 +2577,16 @@
         <v>0.9651048492791613</v>
       </c>
       <c r="C63">
+        <v>0.914199171663473</v>
+      </c>
+      <c r="D63">
         <v>1.008566602316602</v>
       </c>
-      <c r="D63">
-        <v>0.9142318567389255</v>
-      </c>
       <c r="E63">
-        <v>0.9374737137249403</v>
+        <v>0.9374688635902356</v>
       </c>
       <c r="F63">
-        <v>0.9563442555149073</v>
+        <v>0.956334871712368</v>
       </c>
       <c r="G63">
         <v>0.9962290583954103</v>
@@ -2588,16 +2603,16 @@
         <v>0.9670161642638707</v>
       </c>
       <c r="C64">
+        <v>0.9085739012177784</v>
+      </c>
+      <c r="D64">
         <v>1.008204633204633</v>
       </c>
-      <c r="D64">
-        <v>0.9085768143261075</v>
-      </c>
       <c r="E64">
-        <v>0.8959764474975466</v>
+        <v>0.8959721017768512</v>
       </c>
       <c r="F64">
-        <v>0.9449435148230395</v>
+        <v>0.9449417001157834</v>
       </c>
       <c r="G64">
         <v>0.9970112028848254</v>
@@ -2614,16 +2629,16 @@
         <v>0.9815421581476629</v>
       </c>
       <c r="C65">
+        <v>0.9038140569944983</v>
+      </c>
+      <c r="D65">
         <v>1.003137065637066</v>
       </c>
-      <c r="D65">
-        <v>0.9038642789820923</v>
-      </c>
       <c r="E65">
-        <v>0.9132903406701247</v>
+        <v>0.9132793328043988</v>
       </c>
       <c r="F65">
-        <v>0.9504584608592364</v>
+        <v>0.9504431533959063</v>
       </c>
       <c r="G65">
         <v>0.9983728881706143</v>
@@ -2640,16 +2655,16 @@
         <v>0.9760812581913501</v>
       </c>
       <c r="C66">
+        <v>0.8906472151820487</v>
+      </c>
+      <c r="D66">
         <v>1.005550193050193</v>
       </c>
-      <c r="D66">
-        <v>0.8906691800188501</v>
-      </c>
       <c r="E66">
-        <v>0.8874947427449881</v>
+        <v>0.887484547115154</v>
       </c>
       <c r="F66">
-        <v>0.9399488435013453</v>
+        <v>0.9399408033846866</v>
       </c>
       <c r="G66">
         <v>0.9949945893819959</v>
@@ -2666,16 +2681,16 @@
         <v>0.9552206203582351</v>
       </c>
       <c r="C67">
+        <v>0.8633244730172468</v>
+      </c>
+      <c r="D67">
         <v>0.9847972972972974</v>
       </c>
-      <c r="D67">
-        <v>0.8633364750235627</v>
-      </c>
       <c r="E67">
-        <v>0.888406000280387</v>
+        <v>0.8884071074044688</v>
       </c>
       <c r="F67">
-        <v>0.9229400982398706</v>
+        <v>0.922937374519312</v>
       </c>
       <c r="G67">
         <v>0.9779036328883906</v>
@@ -2692,16 +2707,16 @@
         <v>0.9660878112712975</v>
       </c>
       <c r="C68">
+        <v>0.8670952587006244</v>
+      </c>
+      <c r="D68">
         <v>0.9634411196911197</v>
       </c>
-      <c r="D68">
-        <v>0.8671065032987748</v>
-      </c>
       <c r="E68">
-        <v>0.8963970278984998</v>
+        <v>0.8963964795099361</v>
       </c>
       <c r="F68">
-        <v>0.923258115539923</v>
+        <v>0.9232551672932444</v>
       </c>
       <c r="G68">
         <v>0.9752902023052845</v>
@@ -2718,16 +2733,16 @@
         <v>0.969309742245522</v>
       </c>
       <c r="C69">
+        <v>0.9038140569944983</v>
+      </c>
+      <c r="D69">
         <v>0.9873310810810811</v>
       </c>
-      <c r="D69">
-        <v>0.9038642789820923</v>
-      </c>
       <c r="E69">
-        <v>0.9077526987242394</v>
+        <v>0.9077439710685093</v>
       </c>
       <c r="F69">
-        <v>0.9420644502582337</v>
+        <v>0.9420497128474027</v>
       </c>
       <c r="G69">
         <v>0.9858805643376666</v>
@@ -2744,16 +2759,16 @@
         <v>0.9730231542158149</v>
       </c>
       <c r="C70">
+        <v>0.9038140569944983</v>
+      </c>
+      <c r="D70">
         <v>0.974903474903475</v>
       </c>
-      <c r="D70">
-        <v>0.9038642789820923</v>
-      </c>
       <c r="E70">
-        <v>0.9008832188420017</v>
+        <v>0.9008801225160065</v>
       </c>
       <c r="F70">
-        <v>0.938168531735846</v>
+        <v>0.9381552021574486</v>
       </c>
       <c r="G70">
         <v>0.9857627714928752</v>
@@ -2770,16 +2785,16 @@
         <v>0.969692005242464</v>
       </c>
       <c r="C71">
+        <v>0.9028868146133399</v>
+      </c>
+      <c r="D71">
         <v>0.9832287644787645</v>
       </c>
-      <c r="D71">
-        <v>0.9029217719132893</v>
-      </c>
       <c r="E71">
-        <v>0.9230337866255431</v>
+        <v>0.9230400206653505</v>
       </c>
       <c r="F71">
-        <v>0.9447190820650153</v>
+        <v>0.9447119012499797</v>
       </c>
       <c r="G71">
         <v>0.9956777878817863</v>
@@ -2796,16 +2811,16 @@
         <v>0.9888597640891219</v>
       </c>
       <c r="C72">
+        <v>0.9556778141806269</v>
+      </c>
+      <c r="D72">
         <v>0.9961389961389961</v>
       </c>
-      <c r="D72">
-        <v>0.9557021677662583</v>
-      </c>
       <c r="E72">
-        <v>0.9344595541847749</v>
+        <v>0.934461317047069</v>
       </c>
       <c r="F72">
-        <v>0.9687901205447877</v>
+        <v>0.9687844728639534</v>
       </c>
       <c r="G72">
         <v>1.009132871899496</v>
@@ -2822,16 +2837,16 @@
         <v>0.9923547400611621</v>
       </c>
       <c r="C73">
+        <v>0.9509797861160908</v>
+      </c>
+      <c r="D73">
         <v>0.9998793436293436</v>
       </c>
-      <c r="D73">
-        <v>0.9509896324222431</v>
-      </c>
       <c r="E73">
-        <v>0.9451142576755923</v>
+        <v>0.9451076627857632</v>
       </c>
       <c r="F73">
-        <v>0.9720844934470853</v>
+        <v>0.97208038314809</v>
       </c>
       <c r="G73">
         <v>1.009648019274051</v>
@@ -2848,16 +2863,16 @@
         <v>1.011686325906509</v>
       </c>
       <c r="C74">
+        <v>0.9509797861160908</v>
+      </c>
+      <c r="D74">
         <v>1.004826254826255</v>
       </c>
-      <c r="D74">
-        <v>0.9509896324222431</v>
-      </c>
       <c r="E74">
-        <v>0.9683162764615167</v>
+        <v>0.9683192796649261</v>
       </c>
       <c r="F74">
-        <v>0.983954622404131</v>
+        <v>0.9839529116284453</v>
       </c>
       <c r="G74">
         <v>1.008347586267553</v>
@@ -2874,16 +2889,16 @@
         <v>1.017365661861075</v>
       </c>
       <c r="C75">
+        <v>0.9528342708784078</v>
+      </c>
+      <c r="D75">
         <v>1.007239382239382</v>
       </c>
-      <c r="D75">
-        <v>0.9528746465598491</v>
-      </c>
       <c r="E75">
-        <v>0.9681059862610401</v>
+        <v>0.9680978651954907</v>
       </c>
       <c r="F75">
-        <v>0.9863964192303365</v>
+        <v>0.9863842950435888</v>
       </c>
       <c r="G75">
         <v>1.012306996423809</v>
@@ -2900,16 +2915,16 @@
         <v>1.024737876802097</v>
       </c>
       <c r="C76">
+        <v>0.9641466279285407</v>
+      </c>
+      <c r="D76">
         <v>1.003378378378379</v>
       </c>
-      <c r="D76">
-        <v>0.9641847313854853</v>
-      </c>
       <c r="E76">
-        <v>0.9790410766858265</v>
+        <v>0.9790394302267653</v>
       </c>
       <c r="F76">
-        <v>0.9928355158129469</v>
+        <v>0.9928255783339455</v>
       </c>
       <c r="G76">
         <v>1.015022514139068</v>
@@ -2926,16 +2941,16 @@
         <v>1.033366098733071</v>
       </c>
       <c r="C77">
+        <v>0.9547505717994684</v>
+      </c>
+      <c r="D77">
         <v>1.007239382239382</v>
       </c>
-      <c r="D77">
-        <v>0.9547596606974551</v>
-      </c>
       <c r="E77">
-        <v>0.9650217299873826</v>
+        <v>0.9650165138291789</v>
       </c>
       <c r="F77">
-        <v>0.9900967179143227</v>
+        <v>0.9900931416502752</v>
       </c>
       <c r="G77">
         <v>1.011864095327393</v>
@@ -2952,16 +2967,16 @@
         <v>1.052588466579292</v>
       </c>
       <c r="C78">
+        <v>0.9452926995116523</v>
+      </c>
+      <c r="D78">
         <v>1.008204633204633</v>
       </c>
-      <c r="D78">
-        <v>0.945334590009425</v>
-      </c>
       <c r="E78">
-        <v>0.9783401093509041</v>
+        <v>0.978338284406886</v>
       </c>
       <c r="F78">
-        <v>0.9961169497860637</v>
+        <v>0.996106020925616</v>
       </c>
       <c r="G78">
         <v>1.012434212696184</v>
@@ -2978,16 +2993,16 @@
         <v>1.068643512450852</v>
       </c>
       <c r="C79">
+        <v>0.9679174136119183</v>
+      </c>
+      <c r="D79">
         <v>1.016167953667954</v>
       </c>
-      <c r="D79">
-        <v>0.9679547596606973</v>
-      </c>
       <c r="E79">
-        <v>1.002944062806673</v>
+        <v>1.002933741720021</v>
       </c>
       <c r="F79">
-        <v>1.013927572146544</v>
+        <v>1.013915655362686</v>
       </c>
       <c r="G79">
         <v>1.019259915409032</v>
@@ -3004,16 +3019,16 @@
         <v>1.059141546526868</v>
       </c>
       <c r="C80">
+        <v>0.9650738703096989</v>
+      </c>
+      <c r="D80">
         <v>1.009773166023166</v>
       </c>
-      <c r="D80">
-        <v>0.9651272384542884</v>
-      </c>
       <c r="E80">
-        <v>1.001752418337305</v>
+        <v>1.001752864549698</v>
       </c>
       <c r="F80">
-        <v>1.008948592335407</v>
+        <v>1.008935361852358</v>
       </c>
       <c r="G80">
         <v>1.019603870515823</v>
@@ -3030,16 +3045,16 @@
         <v>1.079838357361293</v>
       </c>
       <c r="C81">
+        <v>0.9839277987265871</v>
+      </c>
+      <c r="D81">
         <v>1.005550193050193</v>
       </c>
-      <c r="D81">
-        <v>0.9839773798303488</v>
-      </c>
       <c r="E81">
-        <v>0.990116360577597</v>
+        <v>0.9901101536985443</v>
       </c>
       <c r="F81">
-        <v>1.014870572704858</v>
+        <v>1.014856625709154</v>
       </c>
       <c r="G81">
         <v>1.018626975189686</v>
@@ -3056,16 +3071,16 @@
         <v>1.045871559633027</v>
       </c>
       <c r="C82">
+        <v>0.9763862273598318</v>
+      </c>
+      <c r="D82">
         <v>0.9810569498069499</v>
       </c>
-      <c r="D82">
-        <v>0.9764373232799246</v>
-      </c>
       <c r="E82">
-        <v>0.9599046684424504</v>
+        <v>0.9599055298263742</v>
       </c>
       <c r="F82">
-        <v>0.9908176252905881</v>
+        <v>0.9908050666565458</v>
       </c>
       <c r="G82">
         <v>1.01919866312974</v>
@@ -3082,16 +3097,16 @@
         <v>1.011031017911752</v>
       </c>
       <c r="C83">
+        <v>0.9499907275761884</v>
+      </c>
+      <c r="D83">
         <v>0.9666988416988418</v>
       </c>
-      <c r="D83">
-        <v>0.9500471253534402</v>
-      </c>
       <c r="E83">
-        <v>0.9438525164727324</v>
+        <v>0.9438529807922948</v>
       </c>
       <c r="F83">
-        <v>0.9679073753591916</v>
+        <v>0.9678933919947692</v>
       </c>
       <c r="G83">
         <v>1.012145227583629</v>
@@ -3108,16 +3123,16 @@
         <v>1.027359108781127</v>
       </c>
       <c r="C84">
+        <v>0.9547505717994684</v>
+      </c>
+      <c r="D84">
         <v>0.9660955598455598</v>
       </c>
-      <c r="D84">
-        <v>0.9547596606974551</v>
-      </c>
       <c r="E84">
-        <v>0.9278003645030142</v>
+        <v>0.9278004317582155</v>
       </c>
       <c r="F84">
-        <v>0.9690036734567891</v>
+        <v>0.9690014180460926</v>
       </c>
       <c r="G84">
         <v>1.017100379921189</v>
@@ -3134,16 +3149,16 @@
         <v>1.035113586719091</v>
       </c>
       <c r="C85">
+        <v>0.9387401866847994</v>
+      </c>
+      <c r="D85">
         <v>0.964165057915058</v>
       </c>
-      <c r="D85">
-        <v>0.9387370405278039</v>
-      </c>
       <c r="E85">
-        <v>0.9603953455768961</v>
+        <v>0.960385261176818</v>
       </c>
       <c r="F85">
-        <v>0.9746027576847123</v>
+        <v>0.9746010231239417</v>
       </c>
       <c r="G85">
         <v>1.013967090249737</v>
@@ -3160,16 +3175,16 @@
         <v>1.054499781564002</v>
       </c>
       <c r="C86">
+        <v>0.9424491562094331</v>
+      </c>
+      <c r="D86">
         <v>0.9740588803088803</v>
       </c>
-      <c r="D86">
-        <v>0.942507068803016</v>
-      </c>
       <c r="E86">
-        <v>0.9758867236786766</v>
+        <v>0.9758842740373084</v>
       </c>
       <c r="F86">
-        <v>0.9867381135886437</v>
+        <v>0.9867230230299059</v>
       </c>
       <c r="G86">
         <v>1.022763859898761</v>
@@ -3186,16 +3201,16 @@
         <v>1.065093927479249</v>
       </c>
       <c r="C87">
+        <v>0.9236570439512889</v>
+      </c>
+      <c r="D87">
         <v>0.9670608108108109</v>
       </c>
-      <c r="D87">
-        <v>0.9236569274269556</v>
-      </c>
       <c r="E87">
-        <v>0.9777092387494742</v>
+        <v>0.9777109434101519</v>
       </c>
       <c r="F87">
-        <v>0.9833802261166222</v>
+        <v>0.983380681412875</v>
       </c>
       <c r="G87">
         <v>1.011295548529867</v>
@@ -3212,16 +3227,16 @@
         <v>1.085626911314985</v>
       </c>
       <c r="C88">
+        <v>0.9519070284972493</v>
+      </c>
+      <c r="D88">
         <v>0.9781611969111969</v>
       </c>
-      <c r="D88">
-        <v>0.9519321394910462</v>
-      </c>
       <c r="E88">
-        <v>0.9918687789149024</v>
+        <v>0.9918630182482426</v>
       </c>
       <c r="F88">
-        <v>1.001897256658033</v>
+        <v>1.001889538742918</v>
       </c>
       <c r="G88">
         <v>1.024923395386604</v>
@@ -3238,16 +3253,16 @@
         <v>1.096657929226737</v>
       </c>
       <c r="C89">
+        <v>0.9924584286332447</v>
+      </c>
+      <c r="D89">
         <v>0.9915540540540541</v>
       </c>
-      <c r="D89">
-        <v>0.9924599434495758</v>
-      </c>
       <c r="E89">
-        <v>1.011215477358755</v>
+        <v>1.011218333118069</v>
       </c>
       <c r="F89">
-        <v>1.02297185102228</v>
+        <v>1.022972186258026</v>
       </c>
       <c r="G89">
         <v>1.033143765381782</v>
@@ -3264,16 +3279,16 @@
         <v>1.080439056356488</v>
       </c>
       <c r="C90">
+        <v>0.9933856710144032</v>
+      </c>
+      <c r="D90">
         <v>0.9960183397683398</v>
       </c>
-      <c r="D90">
-        <v>0.9934024505183789</v>
-      </c>
       <c r="E90">
-        <v>1.013108089163045</v>
+        <v>1.013100356108272</v>
       </c>
       <c r="F90">
-        <v>1.020741983951563</v>
+        <v>1.020735855811876</v>
       </c>
       <c r="G90">
         <v>1.036514211314081</v>
@@ -3290,16 +3305,16 @@
         <v>1.079729139362167</v>
       </c>
       <c r="C91">
+        <v>1.0263336836249</v>
+      </c>
+      <c r="D91">
         <v>0.9928812741312741</v>
       </c>
-      <c r="D91">
-        <v>1.026390197926484</v>
-      </c>
       <c r="E91">
-        <v>1.004556287676994</v>
+        <v>1.004557447829216</v>
       </c>
       <c r="F91">
-        <v>1.02588922477423</v>
+        <v>1.025875386236889</v>
       </c>
       <c r="G91">
         <v>1.034125372421711</v>
@@ -3316,16 +3331,16 @@
         <v>1.081422018348624</v>
       </c>
       <c r="C92">
+        <v>1.032020770229338</v>
+      </c>
+      <c r="D92">
         <v>0.9995173745173745</v>
       </c>
-      <c r="D92">
-        <v>1.032045240339303</v>
-      </c>
       <c r="E92">
-        <v>1.029230337866255</v>
+        <v>1.029226709965496</v>
       </c>
       <c r="F92">
-        <v>1.035553742767889</v>
+        <v>1.035546718265208</v>
       </c>
       <c r="G92">
         <v>1.028521574152166</v>
@@ -3342,16 +3357,16 @@
         <v>1.055537352555701</v>
       </c>
       <c r="C93">
+        <v>1.027322742164802</v>
+      </c>
+      <c r="D93">
         <v>0.9923986486486487</v>
       </c>
-      <c r="D93">
-        <v>1.027332704995288</v>
-      </c>
       <c r="E93">
-        <v>1.032244497406421</v>
+        <v>1.032234256508663</v>
       </c>
       <c r="F93">
-        <v>1.026878300901515</v>
+        <v>1.026873249969454</v>
       </c>
       <c r="G93">
         <v>1.025246933066964</v>
@@ -3368,16 +3383,16 @@
         <v>1.050240279598078</v>
       </c>
       <c r="C94">
+        <v>1.02824998454596</v>
+      </c>
+      <c r="D94">
         <v>1.00132722007722</v>
       </c>
-      <c r="D94">
-        <v>1.02827521206409</v>
-      </c>
       <c r="E94">
-        <v>1.059442030001402</v>
+        <v>1.059431333837666</v>
       </c>
       <c r="F94">
-        <v>1.034821185435197</v>
+        <v>1.034812204514731</v>
       </c>
       <c r="G94">
         <v>1.027800681942043</v>
@@ -3394,16 +3409,16 @@
         <v>1.074923547400612</v>
       </c>
       <c r="C95">
+        <v>1.037646040675033</v>
+      </c>
+      <c r="D95">
         <v>1.022321428571429</v>
       </c>
-      <c r="D95">
-        <v>1.037700282752121</v>
-      </c>
       <c r="E95">
-        <v>1.096453105285294</v>
+        <v>1.09644445264498</v>
       </c>
       <c r="F95">
-        <v>1.057849591002364</v>
+        <v>1.057833867323013</v>
       </c>
       <c r="G95">
         <v>1.0396663478407</v>
@@ -3420,16 +3435,16 @@
         <v>1.074159021406728</v>
       </c>
       <c r="C96">
+        <v>1.032020770229338</v>
+      </c>
+      <c r="D96">
         <v>1.01761583011583</v>
       </c>
-      <c r="D96">
-        <v>1.032045240339303</v>
-      </c>
       <c r="E96">
-        <v>1.086990046263844</v>
+        <v>1.086978984076609</v>
       </c>
       <c r="F96">
-        <v>1.052702534531426</v>
+        <v>1.052693651457126</v>
       </c>
       <c r="G96">
         <v>1.041007615700059</v>
@@ -3446,16 +3461,16 @@
         <v>1.074049803407602</v>
       </c>
       <c r="C97">
+        <v>1.036718798293874</v>
+      </c>
+      <c r="D97">
         <v>1.026303088803089</v>
       </c>
-      <c r="D97">
-        <v>1.036757775683318</v>
-      </c>
       <c r="E97">
-        <v>1.093018365344175</v>
+        <v>1.093012528368729</v>
       </c>
       <c r="F97">
-        <v>1.057532258309546</v>
+        <v>1.057521054718323</v>
       </c>
       <c r="G97">
         <v>1.049991283329486</v>
@@ -3472,16 +3487,16 @@
         <v>1.055100480559196</v>
       </c>
       <c r="C98">
+        <v>1.079124683192187</v>
+      </c>
+      <c r="D98">
         <v>1.016529922779923</v>
       </c>
-      <c r="D98">
-        <v>1.079170593779453</v>
-      </c>
       <c r="E98">
-        <v>1.094420300014019</v>
+        <v>1.094414820008488</v>
       </c>
       <c r="F98">
-        <v>1.061305324283148</v>
+        <v>1.061292476634948</v>
       </c>
       <c r="G98">
         <v>1.047283618470546</v>
@@ -3498,16 +3513,16 @@
         <v>1.079128440366973</v>
       </c>
       <c r="C99">
+        <v>1.130061197997157</v>
+      </c>
+      <c r="D99">
         <v>1.013030888030888</v>
       </c>
-      <c r="D99">
-        <v>1.130065975494816</v>
-      </c>
       <c r="E99">
-        <v>1.100799102761811</v>
+        <v>1.100798937210547</v>
       </c>
       <c r="F99">
-        <v>1.080756101663622</v>
+        <v>1.080754865901391</v>
       </c>
       <c r="G99">
         <v>1.0568358328975</v>
@@ -3524,16 +3539,16 @@
         <v>1.086719091306247</v>
       </c>
       <c r="C100">
+        <v>1.116832540025963</v>
+      </c>
+      <c r="D100">
         <v>1.016409266409267</v>
       </c>
-      <c r="D100">
-        <v>1.116870876531574</v>
-      </c>
       <c r="E100">
-        <v>1.11404738539184</v>
+        <v>1.114046902965109</v>
       </c>
       <c r="F100">
-        <v>1.083511654909732</v>
+        <v>1.083501950176646</v>
       </c>
       <c r="G100">
         <v>1.058527338148705</v>
@@ -3550,16 +3565,16 @@
         <v>1.065093927479249</v>
       </c>
       <c r="C101">
+        <v>1.111207269580268</v>
+      </c>
+      <c r="D101">
         <v>1.003619691119691</v>
       </c>
-      <c r="D101">
-        <v>1.111215834118756</v>
-      </c>
       <c r="E101">
-        <v>1.097855039955138</v>
+        <v>1.097846744284739</v>
       </c>
       <c r="F101">
-        <v>1.069446123168208</v>
+        <v>1.069441908115987</v>
       </c>
       <c r="G101">
         <v>1.049366195966459</v>
@@ -3576,16 +3591,16 @@
         <v>1.043141109654871</v>
       </c>
       <c r="C102">
+        <v>1.106447425356988</v>
+      </c>
+      <c r="D102">
         <v>1.005188223938224</v>
       </c>
-      <c r="D102">
-        <v>1.106503298774741</v>
-      </c>
       <c r="E102">
-        <v>1.114538062526286</v>
+        <v>1.114526634315553</v>
       </c>
       <c r="F102">
-        <v>1.06734267372353</v>
+        <v>1.067325848316409</v>
       </c>
       <c r="G102">
         <v>1.047214513334935</v>
@@ -3602,16 +3617,16 @@
         <v>1.049858016601136</v>
       </c>
       <c r="C103">
+        <v>1.133831983680534</v>
+      </c>
+      <c r="D103">
         <v>1.010014478764479</v>
       </c>
-      <c r="D103">
-        <v>1.133836003770028</v>
-      </c>
       <c r="E103">
-        <v>1.135917566241413</v>
+        <v>1.135911581821872</v>
       </c>
       <c r="F103">
-        <v>1.082406516344264</v>
+        <v>1.082404015217005</v>
       </c>
       <c r="G103">
         <v>1.051192770346358</v>
@@ -3628,16 +3643,16 @@
         <v>1.062636522498908</v>
       </c>
       <c r="C104">
+        <v>1.113061754342585</v>
+      </c>
+      <c r="D104">
         <v>1.017133204633205</v>
       </c>
-      <c r="D104">
-        <v>1.113100848256362</v>
-      </c>
       <c r="E104">
-        <v>1.154212813682882</v>
+        <v>1.15421517796188</v>
       </c>
       <c r="F104">
-        <v>1.086770847267839</v>
+        <v>1.086761664859144</v>
       </c>
       <c r="G104">
         <v>1.055659475020849</v>
@@ -3654,16 +3669,16 @@
         <v>1.052042376583661</v>
       </c>
       <c r="C105">
+        <v>1.10552018297583</v>
+      </c>
+      <c r="D105">
         <v>1.021838803088803</v>
       </c>
-      <c r="D105">
-        <v>1.105560791705938</v>
-      </c>
       <c r="E105">
-        <v>1.079139212112716</v>
+        <v>1.079137221617433</v>
       </c>
       <c r="F105">
-        <v>1.064645295872779</v>
+        <v>1.064634646066432</v>
       </c>
       <c r="G105">
         <v>1.049857784772055</v>
@@ -3680,16 +3695,16 @@
         <v>1.047400611620795</v>
       </c>
       <c r="C106">
+        <v>1.103665698213513</v>
+      </c>
+      <c r="D106">
         <v>1.009893822393822</v>
       </c>
-      <c r="D106">
-        <v>1.103675777568332</v>
-      </c>
       <c r="E106">
-        <v>1.080330856582083</v>
+        <v>1.080336549993542</v>
       </c>
       <c r="F106">
-        <v>1.060325267041258</v>
+        <v>1.060324170555418</v>
       </c>
       <c r="G106">
         <v>1.051167641206136</v>
@@ -3706,16 +3721,16 @@
         <v>1.051441677588467</v>
       </c>
       <c r="C107">
+        <v>1.141311738888546</v>
+      </c>
+      <c r="D107">
         <v>1.010014478764479</v>
       </c>
-      <c r="D107">
-        <v>1.141376060320452</v>
-      </c>
       <c r="E107">
-        <v>1.098626104023552</v>
+        <v>1.098621694927764</v>
       </c>
       <c r="F107">
-        <v>1.075364580174238</v>
+        <v>1.075347397542314</v>
       </c>
       <c r="G107">
         <v>1.062591976579641</v>
@@ -3732,16 +3747,16 @@
         <v>1.04521625163827</v>
       </c>
       <c r="C108">
+        <v>1.152624095938678</v>
+      </c>
+      <c r="D108">
         <v>0.9956563706563707</v>
       </c>
-      <c r="D108">
-        <v>1.152686145146089</v>
-      </c>
       <c r="E108">
-        <v>1.064629188279826</v>
+        <v>1.064634573869402</v>
       </c>
       <c r="F108">
-        <v>1.064546988930139</v>
+        <v>1.06453282302568</v>
       </c>
       <c r="G108">
         <v>1.056353667519487</v>
@@ -3758,16 +3773,16 @@
         <v>1.024847094801223</v>
       </c>
       <c r="C109">
+        <v>1.144155282190765</v>
+      </c>
+      <c r="D109">
         <v>0.9873310810810811</v>
       </c>
-      <c r="D109">
-        <v>1.144203581526861</v>
-      </c>
       <c r="E109">
-        <v>1.064208607878873</v>
+        <v>1.064210196136318</v>
       </c>
       <c r="F109">
-        <v>1.05514759132201</v>
+        <v>1.055135913552347</v>
       </c>
       <c r="G109">
         <v>1.046575290830534</v>
@@ -3784,16 +3799,16 @@
         <v>1.003713411970293</v>
       </c>
       <c r="C110">
+        <v>1.076281139889967</v>
+      </c>
+      <c r="D110">
         <v>0.9738175675675677</v>
       </c>
-      <c r="D110">
-        <v>1.076343072573044</v>
-      </c>
       <c r="E110">
-        <v>1.04990887424646</v>
+        <v>1.049910511651936</v>
       </c>
       <c r="F110">
-        <v>1.025945731589341</v>
+        <v>1.025930657769941</v>
       </c>
       <c r="G110">
         <v>1.031282638434078</v>
@@ -3810,16 +3825,16 @@
         <v>1.002184359982525</v>
       </c>
       <c r="C111">
+        <v>1.10552018297583</v>
+      </c>
+      <c r="D111">
         <v>0.9653716216216217</v>
       </c>
-      <c r="D111">
-        <v>1.105560791705938</v>
-      </c>
       <c r="E111">
-        <v>1.070867797560634</v>
+        <v>1.070871081425171</v>
       </c>
       <c r="F111">
-        <v>1.03599614271768</v>
+        <v>1.035986811501287</v>
       </c>
       <c r="G111">
         <v>1.03911664789834</v>
@@ -3836,16 +3851,16 @@
         <v>1.009829619921363</v>
       </c>
       <c r="C112">
+        <v>1.152624095938678</v>
+      </c>
+      <c r="D112">
         <v>0.9657335907335908</v>
       </c>
-      <c r="D112">
-        <v>1.152686145146089</v>
-      </c>
       <c r="E112">
-        <v>1.053624001121548</v>
+        <v>1.053619204014983</v>
       </c>
       <c r="F112">
-        <v>1.045468339230648</v>
+        <v>1.045451627652154</v>
       </c>
       <c r="G112">
         <v>1.045648653784841</v>
@@ -3862,16 +3877,16 @@
         <v>1.022826561817388</v>
       </c>
       <c r="C113">
+        <v>1.157383940161958</v>
+      </c>
+      <c r="D113">
         <v>0.9734555984555985</v>
       </c>
-      <c r="D113">
-        <v>1.157398680490104</v>
-      </c>
       <c r="E113">
-        <v>1.044932006168512</v>
+        <v>1.044928686089636</v>
       </c>
       <c r="F113">
-        <v>1.0496532117329</v>
+        <v>1.049648696631145</v>
       </c>
       <c r="G113">
         <v>1.053410416970965</v>
@@ -3888,16 +3903,16 @@
         <v>1.030034949759721</v>
       </c>
       <c r="C114">
+        <v>1.161154725845336</v>
+      </c>
+      <c r="D114">
         <v>0.9679054054054055</v>
       </c>
-      <c r="D114">
-        <v>1.161168708765316</v>
-      </c>
       <c r="E114">
-        <v>1.050960325248844</v>
+        <v>1.050962230381755</v>
       </c>
       <c r="F114">
-        <v>1.052517347294821</v>
+        <v>1.052514327848054</v>
       </c>
       <c r="G114">
         <v>1.058532049862497</v>
@@ -3914,16 +3929,16 @@
         <v>1.032219309742246</v>
       </c>
       <c r="C115">
+        <v>1.190331952772455</v>
+      </c>
+      <c r="D115">
         <v>0.9787644787644788</v>
       </c>
-      <c r="D115">
-        <v>1.190386427898209</v>
-      </c>
       <c r="E115">
-        <v>1.014930604233843</v>
+        <v>1.014927025481115</v>
       </c>
       <c r="F115">
-        <v>1.054075205159694</v>
+        <v>1.054060691690074</v>
       </c>
       <c r="G115">
         <v>1.066410035322148</v>
@@ -3940,16 +3955,16 @@
         <v>1.018403232852774</v>
       </c>
       <c r="C116">
+        <v>1.175248810038944</v>
+      </c>
+      <c r="D116">
         <v>0.9638030888030887</v>
       </c>
-      <c r="D116">
-        <v>1.175306314797361</v>
-      </c>
       <c r="E116">
-        <v>1.023762792653862</v>
+        <v>1.023765153052752</v>
       </c>
       <c r="F116">
-        <v>1.045318857276772</v>
+        <v>1.04530507118689</v>
       </c>
       <c r="G116">
         <v>1.060900471328436</v>
@@ -3966,16 +3981,16 @@
         <v>1.033202271734382</v>
       </c>
       <c r="C117">
+        <v>1.193175496074674</v>
+      </c>
+      <c r="D117">
         <v>0.9642857142857143</v>
       </c>
-      <c r="D117">
-        <v>1.193213949104618</v>
-      </c>
       <c r="E117">
-        <v>1.044791812701528</v>
+        <v>1.044781076443346</v>
       </c>
       <c r="F117">
-        <v>1.05887343695656</v>
+        <v>1.058861139634529</v>
       </c>
       <c r="G117">
         <v>1.070094595507224</v>
@@ -3989,25 +4004,259 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>1.033202271734382</v>
+        <v>1.051823940585408</v>
       </c>
       <c r="C118">
-        <v>0.9642857142857143</v>
+        <v>1.222414539160537</v>
       </c>
       <c r="D118">
-        <v>1.193213949104618</v>
+        <v>0.9727316602316602</v>
       </c>
       <c r="E118">
-        <v>1.044791812701528</v>
+        <v>1.053194826281898</v>
       </c>
       <c r="F118">
-        <v>1.058873436956561</v>
+        <v>1.075041241564876</v>
       </c>
       <c r="G118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="H118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>1.042376583660987</v>
+      </c>
+      <c r="C119">
+        <v>1.226185324843914</v>
+      </c>
+      <c r="D119">
+        <v>0.9682673745173745</v>
+      </c>
+      <c r="E119">
+        <v>1.031828329981364</v>
+      </c>
+      <c r="F119">
+        <v>1.06716440325091</v>
+      </c>
+      <c r="G119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="H119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>1.040792922673657</v>
+      </c>
+      <c r="C120">
+        <v>1.254435309389875</v>
+      </c>
+      <c r="D120">
+        <v>0.9639237451737452</v>
+      </c>
+      <c r="E120">
+        <v>1.040648006347215</v>
+      </c>
+      <c r="F120">
+        <v>1.074949995896123</v>
+      </c>
+      <c r="G120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="H120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>1.051660113586719</v>
+      </c>
+      <c r="C121">
+        <v>1.241268467577425</v>
+      </c>
+      <c r="D121">
+        <v>0.9638030888030887</v>
+      </c>
+      <c r="E121">
+        <v>1.053766813661273</v>
+      </c>
+      <c r="F121">
+        <v>1.077624620907126</v>
+      </c>
+      <c r="G121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="H121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>1.024137177806903</v>
+      </c>
+      <c r="C122">
+        <v>1.235581380972986</v>
+      </c>
+      <c r="D122">
+        <v>0.9461872586872587</v>
+      </c>
+      <c r="E122">
+        <v>1.011919478937949</v>
+      </c>
+      <c r="F122">
+        <v>1.054456324101274</v>
+      </c>
+      <c r="G122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="H122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>1.022662734818698</v>
+      </c>
+      <c r="C123">
+        <v>1.263893181677691</v>
+      </c>
+      <c r="D123">
+        <v>0.9251930501930502</v>
+      </c>
+      <c r="E123">
+        <v>1.02053619204015</v>
+      </c>
+      <c r="F123">
+        <v>1.058071289682397</v>
+      </c>
+      <c r="G123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="H123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>1.003003494975972</v>
+      </c>
+      <c r="C124">
+        <v>1.263893181677691</v>
+      </c>
+      <c r="D124">
+        <v>0.9235038610038609</v>
+      </c>
+      <c r="E124">
+        <v>1.019410668487186</v>
+      </c>
+      <c r="F124">
+        <v>1.052452801536177</v>
+      </c>
+      <c r="G124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="H124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>1.017529488859764</v>
+      </c>
+      <c r="C125">
+        <v>1.332694566359646</v>
+      </c>
+      <c r="D125">
+        <v>0.924831081081081</v>
+      </c>
+      <c r="E125">
+        <v>1.032732439064893</v>
+      </c>
+      <c r="F125">
+        <v>1.076946893841346</v>
+      </c>
+      <c r="G125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="H125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>1.00698995194408</v>
+      </c>
+      <c r="C126">
+        <v>1.352475737157693</v>
+      </c>
+      <c r="D126">
+        <v>0.9074565637065637</v>
+      </c>
+      <c r="E126">
+        <v>1.016956658117608</v>
+      </c>
+      <c r="F126">
+        <v>1.070969727731486</v>
+      </c>
+      <c r="G126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="H126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>1.00611620795107</v>
+      </c>
+      <c r="C127">
+        <v>1.37225690795574</v>
+      </c>
+      <c r="D127">
+        <v>0.9025096525096525</v>
+      </c>
+      <c r="E127">
+        <v>0.9822683912393675</v>
+      </c>
+      <c r="F127">
+        <v>1.065787789913958</v>
+      </c>
+      <c r="G127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="H127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -4060,10 +4309,10 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4083,10 +4332,10 @@
         <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4106,10 +4355,10 @@
         <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -4119,18 +4368,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
@@ -4151,183 +4400,168 @@
         <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I2">
         <v>0.25</v>
       </c>
       <c r="J2">
-        <v>56.57</v>
+        <v>8.618300437927246</v>
       </c>
       <c r="K2">
-        <v>9.050000000000001</v>
+        <v>53.42950057983398</v>
       </c>
       <c r="L2">
-        <v>27.19</v>
-      </c>
-      <c r="M2">
-        <v>51.51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>51.511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I3">
         <v>0.25</v>
       </c>
       <c r="J3">
-        <v>49.44</v>
+        <v>10.94120025634766</v>
       </c>
       <c r="K3">
-        <v>3.39</v>
+        <v>161.9600982666016</v>
       </c>
       <c r="L3">
-        <v>-7.1</v>
-      </c>
-      <c r="M3">
-        <v>-7.78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>31.9832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I4">
         <v>0.25</v>
       </c>
       <c r="J4">
-        <v>141.9</v>
+        <v>3.147300004959106</v>
       </c>
       <c r="K4">
-        <v>9.640000000000001</v>
+        <v>44.04880142211914</v>
       </c>
       <c r="L4">
-        <v>12.41</v>
-      </c>
-      <c r="M4">
-        <v>31.98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>-7.7804</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I5">
         <v>0.25</v>
       </c>
       <c r="J5">
-        <v>55.84</v>
+        <v>13.56060028076172</v>
       </c>
       <c r="K5">
-        <v>14.11</v>
+        <v>51.59040069580078</v>
       </c>
       <c r="L5">
-        <v>6.87</v>
-      </c>
-      <c r="M5">
-        <v>12.13</v>
+        <v>12.1321</v>
       </c>
     </row>
   </sheetData>
@@ -4345,19 +4579,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4365,10 +4599,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
         <v>110</v>
@@ -4385,10 +4619,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>111</v>
@@ -4405,10 +4639,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
         <v>112</v>
@@ -4425,10 +4659,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
         <v>113</v>
@@ -4445,16 +4679,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
         <v>114</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F6" t="s">
         <v>153</v>
@@ -4465,16 +4699,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
         <v>115</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F7" t="s">
         <v>154</v>
@@ -4485,10 +4719,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
         <v>116</v>
@@ -4505,10 +4739,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
         <v>117</v>
@@ -4525,10 +4759,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
         <v>118</v>
@@ -4545,10 +4779,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
         <v>119</v>
@@ -4565,10 +4799,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
         <v>120</v>
@@ -4585,10 +4819,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
         <v>121</v>
@@ -4605,10 +4839,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
         <v>122</v>
@@ -4625,10 +4859,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
         <v>123</v>
@@ -4645,10 +4879,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D16" t="s">
         <v>124</v>
@@ -4665,10 +4899,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
         <v>125</v>
@@ -4685,10 +4919,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D18" t="s">
         <v>126</v>
@@ -4705,10 +4939,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
         <v>127</v>
@@ -4725,7 +4959,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
         <v>108</v>
@@ -4745,7 +4979,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
         <v>109</v>
@@ -4767,7 +5001,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4783,79 +5017,112 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>171</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>172</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>173</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>174</v>
       </c>
       <c r="C5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>175</v>
       </c>
       <c r="C6" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>176</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>177</v>
       </c>
       <c r="C8" t="s">
-        <v>184</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
